--- a/src/test/resources/relay_race/mass_start_4/legs_swapped/master.xlsx
+++ b/src/test/resources/relay_race/mass_start_4/legs_swapped/master.xlsx
@@ -143,7 +143,7 @@
     <t>Bartosz Thomson</t>
   </si>
   <si>
-    <t>JackBruce</t>
+    <t>Jackbruce</t>
   </si>
   <si>
     <t>Sofia O'Connor</t>

--- a/src/test/resources/relay_race/mass_start_4/legs_swapped/master.xlsx
+++ b/src/test/resources/relay_race/mass_start_4/legs_swapped/master.xlsx
@@ -122,7 +122,7 @@
     <t>MASS_START_ELAPSED_TIMES = 23:59:59,23:59:59,23:59:59,2:36:00</t>
   </si>
   <si>
-    <t>DNF_LEGS =</t>
+    <t>DNF_FINISHERS =</t>
   </si>
   <si>
     <t>Team 3</t>

--- a/src/test/resources/relay_race/mass_start_4/legs_swapped/master.xlsx
+++ b/src/test/resources/relay_race/mass_start_4/legs_swapped/master.xlsx
@@ -173,7 +173,7 @@
     <t>Leo McKenzie &amp; Henry Muir</t>
   </si>
   <si>
-    <t>Neil MacDonald &amp; Myles  Christie</t>
+    <t>Neil MacDonald &amp; Myles Christie</t>
   </si>
   <si>
     <t>Lena K. Maclean &amp; Isabel Ritchie</t>
